--- a/medicine/Mort/Cimetière_marin_de_Tréboul/Cimetière_marin_de_Tréboul.xlsx
+++ b/medicine/Mort/Cimetière_marin_de_Tréboul/Cimetière_marin_de_Tréboul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+          <t>Cimetière_marin_de_Tréboul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière marin de Tréboul est un cimetière marin situé dans le quartier de Tréboul à Douarnenez. Il abrite les tombes de nombreux marins disparus et offre un point de vue idéal sur l'océan.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+          <t>Cimetière_marin_de_Tréboul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-Le cimetière est orienté d'est en ouest et surplombe la plage Saint-Jean ainsi que la baie de Douarnenez sur toute sa longueur. L'Île Tristan est visible depuis son emplacement.
-Historique
-Le cimetière, initialement situé sur la commune de Poullan-sur-Mer, est construit en 1849 sur un terrain offert par Armand Lauvergnat, un riche industriel, après l'épidémie de choléra qui a ravagé la ville[1],[2]. La commune continue, aujourd'hui encore, de fleurir sa tombe en hommage
-En 1880, le cimetière est rattaché à la commune de Tréboul jusqu'en 1945 où il est rattaché à Douarnenez.
-Le cimetière compte environ 2000 tombes[3] parmi lesquelles celles de nombreux marins ayant péri en mer, notamment à la suite des naufrages du Dom Michel Le Nobletz en 1947 ou de Tendre Berceuse en 1954[4],[5].
-Aménagement du cimetière
-Le cimetière est composé de 24 sections et dispose d'une terrasse panoramique permettant d'avoir un point de vue en hauteur.
-Le cimetière dispose également de quelques monuments collectifs dont un monument aux morts situé à proximité de l'entrée ouest de la rue Treiz an Douric et d'une croix de mission du côté de la plage Saint-Jean. 
-Dans la culture populaire
-Le cimetière apparaît dans de nombreux films[6] et notamment dans le téléfilm Entre vents et marées de Josée Dayan[7] ou encore dans le téléfilm Meurtres en Cornouaille réalisé par Franck Mancuso[8].
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est orienté d'est en ouest et surplombe la plage Saint-Jean ainsi que la baie de Douarnenez sur toute sa longueur. L'Île Tristan est visible depuis son emplacement.
 </t>
         </is>
       </c>
@@ -534,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+          <t>Cimetière_marin_de_Tréboul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +557,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière, initialement situé sur la commune de Poullan-sur-Mer, est construit en 1849 sur un terrain offert par Armand Lauvergnat, un riche industriel, après l'épidémie de choléra qui a ravagé la ville,. La commune continue, aujourd'hui encore, de fleurir sa tombe en hommage
+En 1880, le cimetière est rattaché à la commune de Tréboul jusqu'en 1945 où il est rattaché à Douarnenez.
+Le cimetière compte environ 2000 tombes parmi lesquelles celles de nombreux marins ayant péri en mer, notamment à la suite des naufrages du Dom Michel Le Nobletz en 1947 ou de Tendre Berceuse en 1954,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_marin_de_Tréboul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aménagement du cimetière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est composé de 24 sections et dispose d'une terrasse panoramique permettant d'avoir un point de vue en hauteur.
+Le cimetière dispose également de quelques monuments collectifs dont un monument aux morts situé à proximité de l'entrée ouest de la rue Treiz an Douric et d'une croix de mission du côté de la plage Saint-Jean. </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_marin_de_Tréboul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière apparaît dans de nombreux films et notamment dans le téléfilm Entre vents et marées de Josée Dayan ou encore dans le téléfilm Meurtres en Cornouaille réalisé par Franck Mancuso.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_marin_de_Tréboul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_marin_de_Tr%C3%A9boul</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Inhumés célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>John-Antoine Nau (né Eugène Torquet, 1860-1918), romancier et poète, prix Goncourt de 1903.
 Georges Perros (né Georges Poulot, 1923-1978), écrivain et comédien.
 Nicolas Genka (né Eugène Nicolas, 1937-2009), écrivain.
-Xavier Trellu, (1898-1998), homme politique français et conseiller municipal de Douarnenez[9].</t>
+Xavier Trellu, (1898-1998), homme politique français et conseiller municipal de Douarnenez.</t>
         </is>
       </c>
     </row>
